--- a/data/trans_orig/POLIPATOLOGIA_5-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_5-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>45014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33292</v>
+        <v>32827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57805</v>
+        <v>59421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07706062391987961</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05699293208703285</v>
+        <v>0.05619688801274925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09895687382583578</v>
+        <v>0.1017230860965286</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -765,19 +765,19 @@
         <v>98666</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80290</v>
+        <v>82016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115749</v>
+        <v>118308</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1069748656678279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08705124847908376</v>
+        <v>0.08892251082845416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.125495378630228</v>
+        <v>0.1282707283271219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>144</v>
@@ -786,19 +786,19 @@
         <v>143681</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122008</v>
+        <v>121369</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>167160</v>
+        <v>167859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09537550119172883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08098940821666339</v>
+        <v>0.080564763959733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1109610695866233</v>
+        <v>0.1114253122554103</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>539127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>526336</v>
+        <v>524720</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>550849</v>
+        <v>551314</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9229393760801204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9010431261741645</v>
+        <v>0.898276913903471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9430070679129677</v>
+        <v>0.9438031119872506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>788</v>
@@ -836,19 +836,19 @@
         <v>823667</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>806584</v>
+        <v>804025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>842043</v>
+        <v>840317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8930251343321721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8745046213697719</v>
+        <v>0.8717292716728777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.912948751520916</v>
+        <v>0.9110774891715456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1315</v>
@@ -857,19 +857,19 @@
         <v>1362793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1339314</v>
+        <v>1338615</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1384466</v>
+        <v>1385105</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9046244988082712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8890389304133766</v>
+        <v>0.8885746877445905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9190105917833366</v>
+        <v>0.9194352360402671</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>28017</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19294</v>
+        <v>18492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39254</v>
+        <v>39558</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02599254940786299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01789937021602908</v>
+        <v>0.01715553597153405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03641688961888241</v>
+        <v>0.03669899390517986</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -982,19 +982,19 @@
         <v>51015</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37291</v>
+        <v>38576</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65914</v>
+        <v>66533</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0482393040897432</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03526254436584618</v>
+        <v>0.03647736040514542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06232768467981525</v>
+        <v>0.06291263881642829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -1003,19 +1003,19 @@
         <v>79032</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63414</v>
+        <v>63486</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96894</v>
+        <v>98455</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03700989303164152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0296959588954078</v>
+        <v>0.02972999689383683</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04537453098720823</v>
+        <v>0.04610563717766212</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1049877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1038640</v>
+        <v>1038336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1058600</v>
+        <v>1059402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.974007450592137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9635831103811177</v>
+        <v>0.9633010060948202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9821006297839709</v>
+        <v>0.982844464028466</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>979</v>
@@ -1053,19 +1053,19 @@
         <v>1006523</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>991624</v>
+        <v>991005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1020247</v>
+        <v>1018962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9517606959102568</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9376723153201848</v>
+        <v>0.9370873611835717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9647374556341539</v>
+        <v>0.9635226395948546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2005</v>
@@ -1074,19 +1074,19 @@
         <v>2056400</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2038538</v>
+        <v>2036977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2072018</v>
+        <v>2071946</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9629901069683585</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9546254690127922</v>
+        <v>0.953894362822338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9703040411045922</v>
+        <v>0.9702700031061632</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13369</v>
+        <v>12484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31990</v>
+        <v>31318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01839063626316198</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01191935353269222</v>
+        <v>0.01113033510098692</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02852214424982161</v>
+        <v>0.02792282400519768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1199,19 +1199,19 @@
         <v>49426</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36239</v>
+        <v>37395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64927</v>
+        <v>66192</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04972712936452307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03645994476289319</v>
+        <v>0.03762308590773955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06532332141186706</v>
+        <v>0.06659584755219307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -1220,19 +1220,19 @@
         <v>70053</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54994</v>
+        <v>54656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89556</v>
+        <v>86988</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03311343595706826</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02599535259362452</v>
+        <v>0.02583548988542162</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04233246073648655</v>
+        <v>0.04111862061898734</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1100967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1089604</v>
+        <v>1090276</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1108225</v>
+        <v>1109110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.981609363736838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9714778557501783</v>
+        <v>0.9720771759948024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9880806464673078</v>
+        <v>0.9888696648990137</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>936</v>
@@ -1270,19 +1270,19 @@
         <v>944514</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>929013</v>
+        <v>927748</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>957701</v>
+        <v>956545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9502728706354769</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9346766785881329</v>
+        <v>0.9334041524478068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9635400552371068</v>
+        <v>0.9623769140922604</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2018</v>
@@ -1291,19 +1291,19 @@
         <v>2045481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2025978</v>
+        <v>2028546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2060540</v>
+        <v>2060878</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9668865640429317</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9576675392635134</v>
+        <v>0.9588813793810126</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9740046474063755</v>
+        <v>0.9741645101145784</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13660</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7991</v>
+        <v>8027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22611</v>
+        <v>21871</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03054570761845973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01786958269161715</v>
+        <v>0.01794948231292228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0505610382907219</v>
+        <v>0.04890763774601365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>20476</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12962</v>
+        <v>12438</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31649</v>
+        <v>31247</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06001784188416463</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03799329337050021</v>
+        <v>0.03645919941608294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09276989510961353</v>
+        <v>0.09159088013148194</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1437,19 +1437,19 @@
         <v>34136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23993</v>
+        <v>23622</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47468</v>
+        <v>47436</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04329963583198718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03043432822483996</v>
+        <v>0.0299632388416531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06021185762503226</v>
+        <v>0.06017093655859227</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>433540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424589</v>
+        <v>425329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439209</v>
+        <v>439173</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9694542923815402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.949438961709278</v>
+        <v>0.9510923622539865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9821304173083828</v>
+        <v>0.9820505176870777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -1487,19 +1487,19 @@
         <v>320682</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309509</v>
+        <v>309911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328196</v>
+        <v>328720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9399821581158354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9072301048903868</v>
+        <v>0.908409119868518</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9620067066294998</v>
+        <v>0.963540800583917</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>742</v>
@@ -1508,19 +1508,19 @@
         <v>754222</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>740890</v>
+        <v>740922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>764365</v>
+        <v>764736</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9567003641680129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9397881423749673</v>
+        <v>0.9398290634414073</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9695656717751601</v>
+        <v>0.9700367611583468</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>107318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89427</v>
+        <v>89242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>129145</v>
+        <v>129745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03321697442120679</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02767935138101559</v>
+        <v>0.0276219097346494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0399726071786264</v>
+        <v>0.04015846038406402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>211</v>
@@ -1633,19 +1633,19 @@
         <v>219583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>192481</v>
+        <v>192042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>254355</v>
+        <v>251578</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0662397469238095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0580640841131264</v>
+        <v>0.05793182157785508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07672914446022439</v>
+        <v>0.07589160111776834</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>322</v>
@@ -1654,19 +1654,19 @@
         <v>326901</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>292903</v>
+        <v>291179</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>364312</v>
+        <v>363772</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04994059761887509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04474672711468995</v>
+        <v>0.04448340549805059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05565587332960965</v>
+        <v>0.05557340051961947</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3123511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3101684</v>
+        <v>3101084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3141402</v>
+        <v>3141587</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9667830255787933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9600273928213735</v>
+        <v>0.9598415396159359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9723206486189845</v>
+        <v>0.9723780902653506</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3023</v>
@@ -1704,19 +1704,19 @@
         <v>3095386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3060614</v>
+        <v>3063391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3122488</v>
+        <v>3122927</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9337602530761905</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9232708555397754</v>
+        <v>0.9241083988822314</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9419359158868725</v>
+        <v>0.9420681784221449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6080</v>
@@ -1725,19 +1725,19 @@
         <v>6218897</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6181486</v>
+        <v>6182026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6252895</v>
+        <v>6254619</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.950059402381125</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9443441266703904</v>
+        <v>0.9444265994803804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9552532728853103</v>
+        <v>0.9555165945019488</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>49277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36535</v>
+        <v>37985</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65644</v>
+        <v>68566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04720336018962891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03499782593784703</v>
+        <v>0.03638594138181672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06288160249937574</v>
+        <v>0.06568069252268764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -2090,19 +2090,19 @@
         <v>153969</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131680</v>
+        <v>129360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178809</v>
+        <v>176595</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1374807964791426</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1175788361844783</v>
+        <v>0.1155076553716635</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.159661338157351</v>
+        <v>0.1576842849581173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>186</v>
@@ -2111,19 +2111,19 @@
         <v>203246</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177747</v>
+        <v>176449</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>233755</v>
+        <v>234011</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09392732268311837</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08214338275813055</v>
+        <v>0.08154369385830405</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1080266533862672</v>
+        <v>0.108145175379472</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>994658</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>978291</v>
+        <v>975369</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1007400</v>
+        <v>1005950</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9527966398103711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9371183975006242</v>
+        <v>0.9343193074773122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9650021740621529</v>
+        <v>0.9636140586181832</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>889</v>
@@ -2161,19 +2161,19 @@
         <v>965959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>941119</v>
+        <v>943333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>988248</v>
+        <v>990568</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8625192035208574</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8403386618426488</v>
+        <v>0.8423157150418826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8824211638155217</v>
+        <v>0.8844923446283363</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1823</v>
@@ -2182,19 +2182,19 @@
         <v>1960617</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1930108</v>
+        <v>1929852</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1986116</v>
+        <v>1987414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9060726773168817</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8919733466137328</v>
+        <v>0.891854824620528</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9178566172418694</v>
+        <v>0.918456306141696</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>33217</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21907</v>
+        <v>22361</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46277</v>
+        <v>47413</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03399615575176362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02242122162429328</v>
+        <v>0.02288537623427526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04736282839467634</v>
+        <v>0.04852584762164313</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -2307,19 +2307,19 @@
         <v>97283</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79081</v>
+        <v>79801</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119221</v>
+        <v>119106</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08890301391221063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0722686264280324</v>
+        <v>0.07292650493956618</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1089514453700189</v>
+        <v>0.1088459672164647</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -2328,19 +2328,19 @@
         <v>130500</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109695</v>
+        <v>107775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>154022</v>
+        <v>155143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06300281025997895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05295872583719265</v>
+        <v>0.05203170464186854</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07435902438469734</v>
+        <v>0.07490005789888614</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>943856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>930796</v>
+        <v>929660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>955166</v>
+        <v>954712</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9660038442482364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9526371716053236</v>
+        <v>0.9514741523783569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9775787783757067</v>
+        <v>0.9771146237657247</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>929</v>
@@ -2378,19 +2378,19 @@
         <v>996979</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>975041</v>
+        <v>975156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1015181</v>
+        <v>1014461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9110969860877893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8910485546299808</v>
+        <v>0.8911540327835349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9277313735719673</v>
+        <v>0.9270734950604337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1823</v>
@@ -2399,19 +2399,19 @@
         <v>1940835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1917313</v>
+        <v>1916192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1961640</v>
+        <v>1963560</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9369971897400211</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9256409756153028</v>
+        <v>0.925099942101114</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9470412741628074</v>
+        <v>0.9479682953581315</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>33561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24345</v>
+        <v>23862</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47084</v>
+        <v>46289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03791697113809936</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02750487995121939</v>
+        <v>0.02695901898808745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05319550052180236</v>
+        <v>0.05229754397937184</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -2524,19 +2524,19 @@
         <v>65659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51024</v>
+        <v>50529</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82784</v>
+        <v>82932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07497076341464361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.058259628040487</v>
+        <v>0.05769484800322545</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09452397610818068</v>
+        <v>0.09469296878119934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -2545,19 +2545,19 @@
         <v>99220</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81628</v>
+        <v>79683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121348</v>
+        <v>120420</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05634581678012865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04635558582391407</v>
+        <v>0.04525100354445951</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06891227718146398</v>
+        <v>0.06838499272644387</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>851554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>838031</v>
+        <v>838826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>860770</v>
+        <v>861253</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9620830288619007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9468044994781978</v>
+        <v>0.9477024560206282</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9724951200487806</v>
+        <v>0.9730409810119126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>762</v>
@@ -2595,19 +2595,19 @@
         <v>810137</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>793012</v>
+        <v>792864</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>824772</v>
+        <v>825267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9250292365853564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.905476023891819</v>
+        <v>0.9053070312188006</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9417403719595129</v>
+        <v>0.9423051519967746</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1560</v>
@@ -2616,19 +2616,19 @@
         <v>1661691</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1639563</v>
+        <v>1640491</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1679283</v>
+        <v>1681228</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9436541832198714</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9310877228185364</v>
+        <v>0.9316150072735554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9536444141760861</v>
+        <v>0.9547489964555403</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>13797</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7345</v>
+        <v>7322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24166</v>
+        <v>24337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0274276175808925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01460076529311511</v>
+        <v>0.0145554937136446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04804085249736228</v>
+        <v>0.0483810626290756</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -2741,19 +2741,19 @@
         <v>29986</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19614</v>
+        <v>20846</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43396</v>
+        <v>44379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06623215297087205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04332335995816373</v>
+        <v>0.04604408767085281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09585276730624567</v>
+        <v>0.09802413518675046</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -2762,19 +2762,19 @@
         <v>43782</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32188</v>
+        <v>31924</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59072</v>
+        <v>60312</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04580903784655135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03367805629719175</v>
+        <v>0.03340155060471792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06180649838531383</v>
+        <v>0.06310432616036479</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>489226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>478857</v>
+        <v>478686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>495678</v>
+        <v>495701</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725723824191075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9519591475026379</v>
+        <v>0.9516189373709242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985399234706885</v>
+        <v>0.9854445062863554</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>385</v>
@@ -2812,19 +2812,19 @@
         <v>422750</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>409340</v>
+        <v>408357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>433122</v>
+        <v>431890</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.933767847029128</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9041472326937543</v>
+        <v>0.9019758648132497</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9566766400418359</v>
+        <v>0.9539559123291476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>834</v>
@@ -2833,19 +2833,19 @@
         <v>911976</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>896686</v>
+        <v>895446</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>923570</v>
+        <v>923834</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9541909621534487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.938193501614686</v>
+        <v>0.936895673839635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.966321943702808</v>
+        <v>0.9665984493952819</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>129852</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109963</v>
+        <v>107800</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158046</v>
+        <v>155454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03808917843548233</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0322552307969332</v>
+        <v>0.03162079732198259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04635937177887114</v>
+        <v>0.04559914248845649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>319</v>
@@ -2958,19 +2958,19 @@
         <v>346897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>312279</v>
+        <v>310178</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>387633</v>
+        <v>387304</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09791809418608655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08814675558179613</v>
+        <v>0.08755363524081959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1094166356245037</v>
+        <v>0.1093239026437068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>437</v>
@@ -2979,19 +2979,19 @@
         <v>476748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>436596</v>
+        <v>433266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>523620</v>
+        <v>522510</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06857842720014427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06280270784141113</v>
+        <v>0.06232370428664356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07532073955851179</v>
+        <v>0.07516105667826056</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3279293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3251099</v>
+        <v>3253691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3299182</v>
+        <v>3301345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9619108215645177</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9536406282211288</v>
+        <v>0.9544008575115435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9677447692030668</v>
+        <v>0.9683792026780174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2965</v>
@@ -3029,19 +3029,19 @@
         <v>3195825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3155089</v>
+        <v>3155418</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3230443</v>
+        <v>3232544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9020819058139135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8905833643754967</v>
+        <v>0.8906760973562942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9118532444182039</v>
+        <v>0.912446364759181</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6040</v>
@@ -3050,19 +3050,19 @@
         <v>6475119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6428247</v>
+        <v>6429357</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6515271</v>
+        <v>6518601</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9314215727998557</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.924679260441488</v>
+        <v>0.9248389433217393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9371972921585888</v>
+        <v>0.9376762957133561</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>51109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38291</v>
+        <v>37716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66248</v>
+        <v>65766</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04530916812985891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.033946238933612</v>
+        <v>0.03343607651629198</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05873076304269864</v>
+        <v>0.05830354299909098</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -3415,19 +3415,19 @@
         <v>177362</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152212</v>
+        <v>152482</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>204354</v>
+        <v>204673</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1408122003054967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1208450677499089</v>
+        <v>0.1210594989758084</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1622420959344403</v>
+        <v>0.1624952961679137</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>206</v>
@@ -3436,19 +3436,19 @@
         <v>228470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199971</v>
+        <v>200208</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260746</v>
+        <v>260309</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09569197463467444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0837554941159068</v>
+        <v>0.08385486536360907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1092105032712559</v>
+        <v>0.1090273295200273</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1076888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1061749</v>
+        <v>1062231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1089706</v>
+        <v>1090281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9546908318701411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9412692369573014</v>
+        <v>0.941696457000909</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.966053761066388</v>
+        <v>0.966563923483708</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1033</v>
@@ -3486,19 +3486,19 @@
         <v>1082199</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1055207</v>
+        <v>1054888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1107349</v>
+        <v>1107079</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8591877996945033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8377579040655598</v>
+        <v>0.8375047038320862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8791549322500912</v>
+        <v>0.8789405010241916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2048</v>
@@ -3507,19 +3507,19 @@
         <v>2159088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2126812</v>
+        <v>2127249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2187587</v>
+        <v>2187350</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9043080253653256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.890789496728744</v>
+        <v>0.8909726704799726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9162445058840932</v>
+        <v>0.9161451346363909</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>28328</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19119</v>
+        <v>19513</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39984</v>
+        <v>39417</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03116955910843312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02103700841625428</v>
+        <v>0.02147080976375068</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04399508289203987</v>
+        <v>0.04337116362119924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -3632,19 +3632,19 @@
         <v>85273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67162</v>
+        <v>67445</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103844</v>
+        <v>104968</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08472484784030761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0667295619645953</v>
+        <v>0.06701130499548717</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1031759678965582</v>
+        <v>0.1042924887365391</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -3653,19 +3653,19 @@
         <v>113601</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94867</v>
+        <v>92713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134719</v>
+        <v>134136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05931244690020272</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04953138002669107</v>
+        <v>0.04840644960329412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07033815005614931</v>
+        <v>0.07003415837024925</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>880497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>868841</v>
+        <v>869408</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>889706</v>
+        <v>889312</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9688304408915669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9560049171079601</v>
+        <v>0.9566288363788007</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9789629915837461</v>
+        <v>0.9785291902362493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>874</v>
@@ -3703,19 +3703,19 @@
         <v>921202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>902631</v>
+        <v>901507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>939313</v>
+        <v>939030</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9152751521596924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8968240321034419</v>
+        <v>0.8957075112634609</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9332704380354049</v>
+        <v>0.9329886950045132</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1726</v>
@@ -3724,19 +3724,19 @@
         <v>1801699</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1780581</v>
+        <v>1781164</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1820433</v>
+        <v>1822587</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9406875530997972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9296618499438506</v>
+        <v>0.9299658416297506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9504686199733088</v>
+        <v>0.9515935503967058</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>26651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18062</v>
+        <v>18443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38735</v>
+        <v>38837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03235346557962819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02192611796421241</v>
+        <v>0.02238880745111953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04702223846573333</v>
+        <v>0.04714637193424966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -3849,19 +3849,19 @@
         <v>51376</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38608</v>
+        <v>39357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68722</v>
+        <v>68563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06663022193630282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05007080057518193</v>
+        <v>0.05104236291815915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08912704975527169</v>
+        <v>0.08892013892353975</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -3870,19 +3870,19 @@
         <v>78027</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61269</v>
+        <v>60102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96891</v>
+        <v>98162</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04892550781052935</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03841774975909697</v>
+        <v>0.03768598415149236</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06075347948314873</v>
+        <v>0.06155041307808575</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>797108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>785024</v>
+        <v>784922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>805697</v>
+        <v>805316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9676465344203719</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9529777615342666</v>
+        <v>0.9528536280657504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9780738820357876</v>
+        <v>0.9776111925488803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -3920,19 +3920,19 @@
         <v>719683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702337</v>
+        <v>702496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>732451</v>
+        <v>731702</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9333697780636971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9108729502447281</v>
+        <v>0.9110798610764601</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9499291994248179</v>
+        <v>0.9489576370818408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1443</v>
@@ -3941,19 +3941,19 @@
         <v>1516791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1497927</v>
+        <v>1496656</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1533549</v>
+        <v>1534716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9510744921894706</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9392465205168513</v>
+        <v>0.9384495869219143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.961582250240903</v>
+        <v>0.9623140158485076</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>10425</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5026</v>
+        <v>5319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18877</v>
+        <v>18625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02057345042969414</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009918536791265699</v>
+        <v>0.01049720209123204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03725468459869272</v>
+        <v>0.03675804204501472</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -4066,19 +4066,19 @@
         <v>29464</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19429</v>
+        <v>19307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43325</v>
+        <v>41877</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06016839348115224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03967630082203957</v>
+        <v>0.03942557825169561</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08847321193371779</v>
+        <v>0.08551588255321924</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -4087,19 +4087,19 @@
         <v>39889</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27734</v>
+        <v>28631</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54964</v>
+        <v>55493</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04003308188295637</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02783423484566677</v>
+        <v>0.02873459536024441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05516301500241651</v>
+        <v>0.05569323820368073</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>496276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487824</v>
+        <v>488076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501675</v>
+        <v>501382</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9794265495703058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9627453154013073</v>
+        <v>0.9632419579549854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900814632087345</v>
+        <v>0.9895027979087681</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>431</v>
@@ -4137,19 +4137,19 @@
         <v>460234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>446373</v>
+        <v>447821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>470269</v>
+        <v>470391</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9398316065188478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9115267880662822</v>
+        <v>0.91448411744678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9603236991779603</v>
+        <v>0.9605744217483044</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>892</v>
@@ -4158,19 +4158,19 @@
         <v>956509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>941434</v>
+        <v>940905</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>968664</v>
+        <v>967767</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9599669181170436</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9448369849975836</v>
+        <v>0.9443067617963193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9721657651543333</v>
+        <v>0.9712654046397556</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>116512</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95245</v>
+        <v>96057</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137197</v>
+        <v>138686</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03460129868088939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02828534465557585</v>
+        <v>0.02852644910636166</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04074420924303325</v>
+        <v>0.04118630646393681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -4283,19 +4283,19 @@
         <v>343475</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>306045</v>
+        <v>306361</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>383575</v>
+        <v>382443</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09739022964201631</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08677722625332136</v>
+        <v>0.0868668090723565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1087603109332816</v>
+        <v>0.1084394791171682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>418</v>
@@ -4304,19 +4304,19 @@
         <v>459987</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>417967</v>
+        <v>414916</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>502973</v>
+        <v>504799</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06672214656450622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.060626966035034</v>
+        <v>0.06018448888769137</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07295732791955799</v>
+        <v>0.07322208507816977</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3250770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3230085</v>
+        <v>3228596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3272037</v>
+        <v>3271225</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9653987013191107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9592557907569671</v>
+        <v>0.9588136935360635</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9717146553444242</v>
+        <v>0.9714735508936385</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3022</v>
@@ -4354,19 +4354,19 @@
         <v>3183317</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3143217</v>
+        <v>3144349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3220747</v>
+        <v>3220431</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9026097703579837</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8912396890667185</v>
+        <v>0.8915605208828316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9132227737466786</v>
+        <v>0.9131331909276434</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6109</v>
@@ -4375,19 +4375,19 @@
         <v>6434088</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6391102</v>
+        <v>6389276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6476108</v>
+        <v>6479159</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9332778534354937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9270426720804419</v>
+        <v>0.9267779149218301</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9393730339649656</v>
+        <v>0.9398155111123084</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>76894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62618</v>
+        <v>61503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93774</v>
+        <v>94686</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1541775281360957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1255524633137068</v>
+        <v>0.1233174053130144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1880224697191273</v>
+        <v>0.1898511309961283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>276</v>
@@ -4740,19 +4740,19 @@
         <v>168521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149777</v>
+        <v>150621</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>186957</v>
+        <v>186613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2702480520673384</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2401895029278081</v>
+        <v>0.241542127508223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2998118814710157</v>
+        <v>0.2992604454829669</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>363</v>
@@ -4761,19 +4761,19 @@
         <v>245416</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222940</v>
+        <v>221798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>271749</v>
+        <v>269757</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2186683273235661</v>
+        <v>0.218668327323566</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1986418081547629</v>
+        <v>0.1976243900683628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2421312670017946</v>
+        <v>0.2403566204486104</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>421845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>404965</v>
+        <v>404053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436121</v>
+        <v>437236</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8458224718639044</v>
+        <v>0.8458224718639042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8119775302808726</v>
+        <v>0.8101488690038717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8744475366862932</v>
+        <v>0.8766825946869855</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>585</v>
@@ -4811,19 +4811,19 @@
         <v>455059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>436623</v>
+        <v>436967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>473803</v>
+        <v>472959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7297519479326615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7001881185289843</v>
+        <v>0.700739554517033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7598104970721918</v>
+        <v>0.758457872491776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>953</v>
@@ -4832,19 +4832,19 @@
         <v>876904</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>850571</v>
+        <v>852563</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>899380</v>
+        <v>900522</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7813316726764339</v>
+        <v>0.781331672676434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7578687329982053</v>
+        <v>0.7596433795513897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8013581918452369</v>
+        <v>0.8023756099316371</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>81862</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68243</v>
+        <v>67010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98456</v>
+        <v>99467</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08526074633872784</v>
+        <v>0.08526074633872782</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07107662377054996</v>
+        <v>0.06979167408554199</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.102544023861427</v>
+        <v>0.103596603275146</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>351</v>
@@ -4957,19 +4957,19 @@
         <v>198008</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177711</v>
+        <v>177576</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>220507</v>
+        <v>219779</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.177450816015455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.159260749808226</v>
+        <v>0.1591393855722116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1976133168870121</v>
+        <v>0.19696085568097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>469</v>
@@ -4978,19 +4978,19 @@
         <v>279870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252234</v>
+        <v>255144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>306568</v>
+        <v>307063</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1348132126417559</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1215007056154892</v>
+        <v>0.1229027591081636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1476733335804892</v>
+        <v>0.1479119781459537</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>878275</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>861681</v>
+        <v>860670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>891894</v>
+        <v>893127</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9147392536612724</v>
+        <v>0.9147392536612722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8974559761385732</v>
+        <v>0.8964033967248539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.92892337622945</v>
+        <v>0.9302083259144579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1256</v>
@@ -5028,19 +5028,19 @@
         <v>917841</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>895342</v>
+        <v>896070</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>938138</v>
+        <v>938273</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8225491839845449</v>
+        <v>0.822549183984545</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8023866831129879</v>
+        <v>0.80303914431903</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.840739250191774</v>
+        <v>0.8408606144277884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2048</v>
@@ -5049,19 +5049,19 @@
         <v>1796116</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1769418</v>
+        <v>1768923</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1823752</v>
+        <v>1820842</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8651867873582442</v>
+        <v>0.8651867873582441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8523266664195107</v>
+        <v>0.8520880218540461</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8784992943845109</v>
+        <v>0.8770972408918364</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>66474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53200</v>
+        <v>53394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81954</v>
+        <v>82535</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06352136990532981</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05083760344949501</v>
+        <v>0.05102289096816139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07831365369851977</v>
+        <v>0.0788696857582773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>232</v>
@@ -5174,19 +5174,19 @@
         <v>131250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113863</v>
+        <v>115926</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147310</v>
+        <v>148880</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1252809638724363</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1086852875327805</v>
+        <v>0.1106539748834605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1406105664638966</v>
+        <v>0.1421099472991473</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -5195,19 +5195,19 @@
         <v>197723</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>176031</v>
+        <v>172041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220619</v>
+        <v>219097</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09441830694818275</v>
+        <v>0.09441830694818278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08405944022781819</v>
+        <v>0.08215405951040304</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.105351433966757</v>
+        <v>0.1046249031586432</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>980005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>964525</v>
+        <v>963944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>993279</v>
+        <v>993085</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9364786300946701</v>
+        <v>0.93647863009467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9216863463014803</v>
+        <v>0.9211303142417226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9491623965505053</v>
+        <v>0.9489771090318385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1284</v>
@@ -5245,19 +5245,19 @@
         <v>916392</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>900332</v>
+        <v>898762</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>933779</v>
+        <v>931716</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8747190361275636</v>
+        <v>0.8747190361275639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8593894335361033</v>
+        <v>0.8578900527008526</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8913147124672194</v>
+        <v>0.8893460251165395</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2218</v>
@@ -5266,19 +5266,19 @@
         <v>1896398</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1873502</v>
+        <v>1875024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1918090</v>
+        <v>1922080</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.905581693051817</v>
+        <v>0.9055816930518172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8946485660332433</v>
+        <v>0.8953750968413567</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9159405597721819</v>
+        <v>0.9178459404895969</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>70076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54995</v>
+        <v>55188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85479</v>
+        <v>86546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07180484569572264</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05635178901975842</v>
+        <v>0.0565491548178771</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08758687066723039</v>
+        <v>0.08868028612855659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>192</v>
@@ -5391,19 +5391,19 @@
         <v>108547</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93178</v>
+        <v>95139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123673</v>
+        <v>123583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1192371280394211</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1023550286396891</v>
+        <v>0.1045088430637938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1358529203317255</v>
+        <v>0.135753647545065</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>282</v>
@@ -5412,19 +5412,19 @@
         <v>178623</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158895</v>
+        <v>158976</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202334</v>
+        <v>200557</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09469639613992697</v>
+        <v>0.09469639613992695</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0842376349923816</v>
+        <v>0.08428035053527073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1072665914905854</v>
+        <v>0.1063245549690057</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>905853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>890450</v>
+        <v>889383</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>920934</v>
+        <v>920741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9281951543042775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9124131293327696</v>
+        <v>0.9113197138714435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9436482109802417</v>
+        <v>0.9434508451821229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1132</v>
@@ -5462,19 +5462,19 @@
         <v>801798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>786672</v>
+        <v>786762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>817167</v>
+        <v>815206</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8807628719605789</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8641470796682745</v>
+        <v>0.864246352454935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8976449713603109</v>
+        <v>0.8954911569362062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1989</v>
@@ -5483,19 +5483,19 @@
         <v>1707651</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1683940</v>
+        <v>1685717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1727379</v>
+        <v>1727298</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9053036038600732</v>
+        <v>0.905303603860073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8927334085094144</v>
+        <v>0.8936754450309943</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9157623650076175</v>
+        <v>0.9157196494647293</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>295307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>266926</v>
+        <v>267003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>326334</v>
+        <v>326451</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08482691209534919</v>
+        <v>0.08482691209534918</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07667458724400394</v>
+        <v>0.07669677211283052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0937395454892285</v>
+        <v>0.09377308696561458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1051</v>
@@ -5608,19 +5608,19 @@
         <v>606326</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>571320</v>
+        <v>571159</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>642687</v>
+        <v>642465</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1639864630324559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1545188565699053</v>
+        <v>0.1544751817416375</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1738205470096797</v>
+        <v>0.1737606191594129</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1441</v>
@@ -5629,19 +5629,19 @@
         <v>901633</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>854567</v>
+        <v>855555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>946418</v>
+        <v>947707</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1255983301475061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1190420092011411</v>
+        <v>0.119179650190257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1318369157353669</v>
+        <v>0.1320165320920946</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3185977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3154950</v>
+        <v>3154833</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3214358</v>
+        <v>3214281</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9151730879046509</v>
+        <v>0.9151730879046507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.906260454510772</v>
+        <v>0.9062269130343854</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9233254127559961</v>
+        <v>0.9233032278871695</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4257</v>
@@ -5679,19 +5679,19 @@
         <v>3091090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3054729</v>
+        <v>3054951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3126096</v>
+        <v>3126257</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.836013536967544</v>
+        <v>0.8360135369675441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8261794529903203</v>
+        <v>0.8262393808405871</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8454811434300946</v>
+        <v>0.8455248182583623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7208</v>
@@ -5700,19 +5700,19 @@
         <v>6277068</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6232283</v>
+        <v>6230994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6324134</v>
+        <v>6323146</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8744016698524938</v>
+        <v>0.8744016698524939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8681630842646332</v>
+        <v>0.8679834679079056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8809579907988589</v>
+        <v>0.8808203498097429</v>
       </c>
     </row>
     <row r="18">
